--- a/Percentage.xlsx
+++ b/Percentage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>PHP</t>
   </si>
@@ -34,6 +34,81 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Objective-C</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Batchfile</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>VisualBasic</t>
+  </si>
+  <si>
+    <t>XSLT</t>
+  </si>
+  <si>
+    <t>TeX</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>PostScript</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>CoffeeScript</t>
+  </si>
+  <si>
+    <t>Haskell</t>
   </si>
 </sst>
 </file>
@@ -92,6 +167,271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Languages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$60:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HTML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Objective-C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shell</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Batchfile</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TypeScript</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XML</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ASP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Pascal</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>F#</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>VisualBasic</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CoffeeScript</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1039695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>547534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1837613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5246</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,13 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -582,9 +925,516 @@
         <v>99.999999999999986</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>154987</v>
+      </c>
+      <c r="D29">
+        <f>(B29/B56)*100</f>
+        <v>0.18800087254277867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>30159</v>
+      </c>
+      <c r="D30">
+        <f>(B30/B56)*100</f>
+        <v>3.6583186428653124E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>92023</v>
+      </c>
+      <c r="D31">
+        <f>(B31/B56)*100</f>
+        <v>0.11162487366039811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2374953</v>
+      </c>
+      <c r="D32">
+        <f>(B32/B56)*100</f>
+        <v>2.8808431432835646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>12166211</v>
+      </c>
+      <c r="D33">
+        <f>(B33/B56)*100</f>
+        <v>14.757742801264312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>558380</v>
+      </c>
+      <c r="D34">
+        <f>(B34/B56)*100</f>
+        <v>0.67732085407444975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1647735</v>
+      </c>
+      <c r="D35">
+        <f>(B35/B56)*100</f>
+        <v>1.9987200069636513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>60513</v>
+      </c>
+      <c r="D36">
+        <f>(B36/B56)*100</f>
+        <v>7.3402909922646198E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>28548</v>
+      </c>
+      <c r="D37">
+        <f>(B37/B56)*100</f>
+        <v>3.462902636576775E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>4901</v>
+      </c>
+      <c r="D38">
+        <f>(B38/B56)*100</f>
+        <v>5.94496490887725E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>161231</v>
+      </c>
+      <c r="D39">
+        <f>(B39/B56)*100</f>
+        <v>0.19557491067602278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>64604355</v>
+      </c>
+      <c r="D40">
+        <f>(B40/B56)*100</f>
+        <v>78.365766871179048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>11359</v>
+      </c>
+      <c r="D41">
+        <f>(B41/B56)*100</f>
+        <v>1.3778587308699587E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>42398</v>
+      </c>
+      <c r="D42">
+        <f>(B42/B56)*100</f>
+        <v>5.142922305786117E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>22919</v>
+      </c>
+      <c r="D43">
+        <f>(B43/B56)*100</f>
+        <v>2.780098974628804E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>13250</v>
+      </c>
+      <c r="D44">
+        <f>(B44/B56)*100</f>
+        <v>1.6072390337201297E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <f>(B45/B56)*100</f>
+        <v>3.3964296561632926E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>265107</v>
+      </c>
+      <c r="D46">
+        <f>(B46/B56)*100</f>
+        <v>0.32157759887731502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>102883</v>
+      </c>
+      <c r="D47">
+        <f>(B47/B56)*100</f>
+        <v>0.12479816868394572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>62574</v>
+      </c>
+      <c r="D48">
+        <f>(B48/B56)*100</f>
+        <v>7.5902924751700671E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>18456</v>
+      </c>
+      <c r="D49">
+        <f>(B49/B56)*100</f>
+        <v>2.2387323476482049E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>8969</v>
+      </c>
+      <c r="D50">
+        <f>(B50/B56)*100</f>
+        <v>1.087949199504592E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>2957</v>
+      </c>
+      <c r="D51">
+        <f>(B51/B56)*100</f>
+        <v>3.5868723190267343E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>1364</v>
+      </c>
+      <c r="D52">
+        <f>(B52/B56)*100</f>
+        <v>1.6545464467881184E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>418</v>
+      </c>
+      <c r="D53">
+        <f>(B53/B56)*100</f>
+        <v>5.0703842724152018E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>2833</v>
+      </c>
+      <c r="D54">
+        <f>(B54/B56)*100</f>
+        <v>3.4364590056823602E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>SUM(B29:B54)</f>
+        <v>82439511</v>
+      </c>
+      <c r="D56">
+        <f>SUM(D29:D54)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>1039695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>26477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>174909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>547534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>344102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>637901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>18088</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>1837613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>62540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>37728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>33082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>21032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <v>1108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
